--- a/AssignedTo.xlsx
+++ b/AssignedTo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1339,9 +1339,243 @@
           <t>Deepak</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>56</t>
+      <c r="F19" t="n">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Maybe you all got the below email, this is a fake email, so please delete this email. Screenshot below for your reference. 
+Note:- I'm request you, if you send any information related email or any other email to many recipients, So please send email using BCC
+Thanks and Regards,
+Sachin Patel
+</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fake Email Awareness </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fri May 05 2023</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Hitesh Maurya</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adding Lilaji.
+Regards, 
+Sachin Patel
+________________________________
+From: Manish Verma &lt;manish.verma@skapsindia.com&gt;
+Sent: Wednesday, May 10, 2023 9:34 AM
+To: Sachin Patel &lt;sachin.patel@skapsindia.com&gt;
+Subject: Request for New Mouse from Store Room 
+Dear Sachin Patel
+I am writing to request the issuance of a mouse .  I understand the company's policies and the value of office equipment. Therefore, I will take full responsibility
+Thank you for your time and consideration.
+Manish Verma
+</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Re: Request for New Mouse from Store Room</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Wed May 10 2023</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sachin Patel</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Hitesh Maurya</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The Connection Between Exercise and Work Performance
+Source - HBR
+Exercise isn't only good for your physical wellbeing — research finds that it can also vastly improve your ability to perform at work over time. If you're finding yourself sitting more and moving less, as many of us are in this era, how can you become more physically active throughout your workweek? Start by making exercise a daily habit. Remember that some activity is better than none — even just 20 minutes of moderately intense exercise, like a jog or short bike ride, can improve your quality of sleep and lead to cognitive benefits the next day. 
+The WHO recommends that adults ages 18 to 64 years engage in at least 2.5 hours of moderately intense or at least 1.25 hours of highly intense physical activity each week. Finally, make it fun! Try out different classes and routines until you discover the one that works for you. Maybe even consider making exercise a social activity you do with a friend or a partner. When you enjoy exercising, you'll be more likely to develop it as a consistent habit over time. 
+If you’re looking to up your game at work, make an effort to include more physical activity into your days. Your body will thank you, and your mind will reward you with more energy, better task focus, and improved creativity.
+Kind regards,
+Ravirajsinh Jadeja
+M: +91-9328073037/ +91-7096008555
+E:  raviraj.jadeja@skapsindia.com &lt;mailto:raviraj.jadeja@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Article</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Mon Jun 19 2023</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Ravirajsinh Jadeja</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Vrushali</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FYI.
+Regards,
+Usha Shetty
+From: Parvat Maliwad &lt;qa.pet@skapsindia.com&gt; 
+Sent: 03 March 2023 12:28
+To: Usha Shetty &lt;usha.shetty@skapsindia.com&gt;
+Cc: Sanket Gajjar &lt;sanket.gajjar@skapsindia.com&gt;
+Subject: Inspection Check List and CoA
+Hi,
+As per our Discussion please find the attached Documents.
+Thanks,
+PARVAT
++91 7990106438
+ANJANI UDYOG PRIVATE LIMITED
+</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FW: Inspection Check List and CoA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Thu May 11 2023</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Usha Shetty</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Manish</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dear All,
+Please find an attached weekly menu of All units canteen for your perusal.
+Note: Please review your meal experience in the canteen review tablet.
+Thanks &amp; Regards,
+Yagnik Gohel
+M: +91-99 9839 9839 |+91 93167 23366
+E:  yagnik.gohel@skapsindia.com &lt;mailto:yagnik.gohel@skapsindia.com&gt; 
+A:  Pvt Ltd Mundra SEZ Unit I, Mundra, Gujarat 370421
+"BE ONE BE SKAPS"
+</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Weekly Canteen Menu of All Units_8 May to 14 May 2023</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Sun May 07 2023</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yagnik Gohel</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Hitesh Maurya</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vrushali Ghoghalia has shared a OneDrive for Business file with you. To view it, click the link below.
+Open Points_2023.xlsx &lt;https://ind01.safelinks.protection.outlook.com/ap/x-59584e83/?url=https%3A%2F%2Fskapsindia-my.sharepoint.com%2Fpersonal%2Flalitp_skapsindia_com%2FDocuments%2F6_Open%2520Points%2FOpen%2520Points_2023.xlsx%3Fweb%3D1&amp;data=05%7C01%7Cmanish.verma%40skapsindia.com%7Cc0a60efdf5f84d8cef9d08db730585a6%7C429df98ad4fd48a48b20f2518a5357ff%7C0%7C0%7C638230239780891425%7CUnknown%7CTWFpbGZsb3d8eyJWIjoiMC4wLjAwMDAiLCJQIjoiV2luMzIiLCJBTiI6Ik1haWwiLCJXVCI6Mn0%3D%7C3000%7C%7C%7C&amp;sdata=sp8U2C%2BY9fOo00B6UO0MEnLAjCup4EtD11CUV%2F886uE%3D&amp;reserved=0&gt; 
+Regards,
+Vrushali Ghoghalia
+</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Thu Jun 22 2023</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vrushali Ghoghalia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Hitesh Maurya</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>42</t>
         </is>
       </c>
     </row>
